--- a/Lab1/DP1_Lab1 v2.xlsx
+++ b/Lab1/DP1_Lab1 v2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14115" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="14115" windowHeight="5160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comparación" sheetId="1" r:id="rId1"/>
     <sheet name="Requerimientos" sheetId="2" r:id="rId2"/>
     <sheet name="Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -21,9 +21,6 @@
     <t xml:space="preserve">patt_004@hotmail.com </t>
   </si>
   <si>
-    <t xml:space="preserve">Patty </t>
-  </si>
-  <si>
     <t xml:space="preserve">pier_16cp@hotmail.com </t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>La velocidad y la profundidad del análisis de deteccion de plagio es muy eficiente. Además se incluye analisis estadisticos en los informes resultados.</t>
+  </si>
+  <si>
+    <t>Patricia Natividad</t>
   </si>
 </sst>
 </file>
@@ -1003,9 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1019,45 +1019,45 @@
     <row r="1" spans="1:7" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" s="33" customFormat="1" ht="51">
       <c r="A2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1067,76 +1067,76 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1145,54 +1145,54 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1201,19 +1201,19 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1223,48 +1223,48 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1273,101 +1273,101 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="14"/>
@@ -1389,243 +1389,243 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="76.5">
       <c r="A30" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.5" customHeight="1">
       <c r="A31" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="38.25">
       <c r="A32" s="38"/>
       <c r="B32" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="25.5">
       <c r="A33" s="38"/>
       <c r="B33" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="38.25">
       <c r="A34" s="38"/>
       <c r="B34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="38.25">
       <c r="A35" s="38"/>
       <c r="B35" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.5" customHeight="1">
       <c r="A36" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="31"/>
       <c r="B37" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="25.5">
       <c r="A38" s="31"/>
       <c r="B38" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="25.5">
       <c r="A39" s="30"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1656,99 +1656,99 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="17.25" customHeight="1">
       <c r="B2" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1">
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30">
       <c r="B4" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30">
       <c r="B5" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30">
       <c r="B7" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="30">
       <c r="B8" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="35"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="2:3" ht="30">
       <c r="B10" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="35"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="35"/>
     </row>
     <row r="12" spans="2:3" ht="30">
       <c r="B12" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="35"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="35"/>
     </row>
     <row r="14" spans="2:3" ht="30">
       <c r="B14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -1761,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1776,13 +1776,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3">
         <v>986578497</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>981477994</v>
@@ -1804,41 +1804,41 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>981097187</v>

--- a/Lab1/DP1_Lab1 v2.xlsx
+++ b/Lab1/DP1_Lab1 v2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="14115" windowHeight="5160" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Requerimientos" sheetId="2" r:id="rId2"/>
     <sheet name="Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
   <si>
     <t xml:space="preserve">patt_004@hotmail.com </t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>Patricia Natividad</t>
+  </si>
+  <si>
+    <t>981477994(Next)</t>
+  </si>
+  <si>
+    <t>981097187(Next)</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -1762,7 +1768,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1798,8 +1804,8 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
-        <v>981477994</v>
+      <c r="D2" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1840,8 +1846,8 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>981097187</v>
+      <c r="D5" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
